--- a/Documents/Testing/Test Documents/Group 1-AcceptanceTest_Cases.xlsx
+++ b/Documents/Testing/Test Documents/Group 1-AcceptanceTest_Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Seneca\SFT221\MS5\MS5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Seneca\SFT221\MS6\MS6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BB48BE-C360-4B57-84B4-7D166C968A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3081D45F-43C2-46A1-8DEF-C6D6EF52A752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>Test #</t>
   </si>
@@ -204,6 +204,254 @@
   </si>
   <si>
     <t>Package was not added, and an error message "Invalid package input." was logged.</t>
+  </si>
+  <si>
+    <t>Truck Route Assignment Accuracy</t>
+  </si>
+  <si>
+    <t>1. Populate the map.
+2. Initialize two trucks with different capacities and predefined routes (BlueRoute and GreenRoute).
+3. Define a package with specific weight, size, and location.
+4. Call the findTruckForShipment() function to assign the package to a truck.
+5. Verify that a valid truck is selected.
+6. Check if the selected truck can handle the package's weight and volume.
+7. Ensure the selected truck has a valid route assigned.</t>
+  </si>
+  <si>
+    <t>Map: Populated.
+Trucks:
+Truck 0: Weight = 200, Volume = 100, Route = BlueRoute.
+Truck 1: Weight = 100, Volume = 30, Route = GreenRoute.
+Package: Weight = 50, Volume = 20, Location = (5,5).</t>
+  </si>
+  <si>
+    <t>A valid truck (with sufficient weight and volume capacity) is selected for the package.
+The selected truck has a valid route.
+No assertion failures are triggered during the test.</t>
+  </si>
+  <si>
+    <t>Valid Truck Selected:
+Truck 0 is selected, as it has sufficient capacity to handle the package's weight and volume.
+Truck Capacity Verified:
+Truck 0's remaining weight capacity and volume capacity were sufficient for the package.
+Package successfully assigned without exceeding limits.
+Route Verified:
+Truck 0 has a valid route (BlueRoute) assigned, ensuring the truck can deliver the package.
+No Errors or Failures:
+All assertions passed, and no assertion messages (e.g., "No valid truck selected!") were triggered.</t>
+  </si>
+  <si>
+    <t>Truck Operations and Path Calculation</t>
+  </si>
+  <si>
+    <t>1. Initialize an empty truck.
+2. Add a package with weight 50 and volume 30 to the truck.
+3. Verify the truck's package count, weight, and volume after adding the package.
+4. Calculate the remaining capacity of the truck and verify the result.
+5. Define a start point (0,0) and a destination point (3,3).
+6. Calculate the path between the start and destination points.
+7. Verify the path's length and coordinates.
+8. Attempt to add an oversized package (weight 1000, volume 500) to the truck.
+9. Verify the truck's state remains unchanged after the failed addition.</t>
+  </si>
+  <si>
+    <t>Truck: Initially empty.
+Package: First package: {weight=50, volume=30}; Oversized package: {weight=1000, volume=500}.
+Start Point: (0,0)
+Destination Point: (3,3)</t>
+  </si>
+  <si>
+    <t>After adding the first package:
+Package count = 1.
+Truck weight = 50.
+Truck volume = 30.
+Remaining capacity calculation is accurate and matches the expected value.
+Path length is 6, and the path points are calculated correctly:
+First path point: (0,1)
+Last path point: (3,3)
+Oversized package is rejected, and the truck's state (package count, weight, and volume) remains unchanged.</t>
+  </si>
+  <si>
+    <t>Multiple Packages Handling</t>
+  </si>
+  <si>
+    <t>1. Initialize an empty truck.
+2. Add the first package {weight=40, volume=20} to the truck.
+3. Verify the truck's package count, current weight, and current volume after adding the first package.
+4. Add the second package {weight=30, volume=25} to the truck.
+5. Verify the truck's package count, current weight, and current volume after adding the second package.
+6. Attempt to add a third package {weight=100, volume=100} that exceeds the truck's capacity.
+7. Verify that the third package was not added, and the truck's state (package count, current weight, and current volume) remains unchanged.</t>
+  </si>
+  <si>
+    <t>Truck: Initially empty.
+Packages:
+First package: {weight=40, volume=20}
+Second package: {weight=30, volume=25}
+Third package: {weight=100, volume=100} (exceeds capacity).</t>
+  </si>
+  <si>
+    <t>1. After adding the first package:
+Package count = 1.
+Truck weight = 40.
+Truck volume = 20. 
+2. After adding the second package:
+Package count = 2.
+Truck weight = 70.
+Truck volume = 45.
+3. After attempting to add the third package:
+Package count remains 2 (unchanged).
+Truck weight remains 70 (unchanged).
+Truck volume remains 45 (unchanged).</t>
+  </si>
+  <si>
+    <t>Adding the First Package:
+Package count = 1 (correct).
+Truck weight = 50 (correct).
+Truck volume = 30 (correct).
+Remaining Capacity Calculation:
+The remaining capacity calculation is accurate and matches the expected value of ((LIMIT_WEIGHT - 50) / LIMIT_WEIGHT) * 100.
+Path Calculation:
+Path length = 6 (correct).
+Path points:
+First path point: (0,1) (correct).
+Last path point: (3,3) (correct).
+Adding Oversized Package:
+Oversized package was rejected as expected.
+Truck state remained unchanged:
+Package count = 1 (correct).
+Truck weight = 50 (correct).
+Truck volume = 30 (correct).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding the First Package:
+Package Count: 1 (correct).
+Truck Weight: 40 (correct).
+Truck Volume: 20 (correct).
+Adding the Second Package:
+Package Count: 2 (correct).
+Truck Weight: 70 (correct).
+Truck Volume: 45 (correct).
+Add the Third Package: 
+weight: 100
+volumn: 100
+this package has volume exceed Limit_Volume --&gt; can not add
+Attempting to Add the Third Package:
+Package Count: 2 (unchanged, correct).
+Truck Weight: 70 (unchanged, correct).
+Truck Volume: 45 (unchanged, correct).
+</t>
+  </si>
+  <si>
+    <t>Edge Case Volume Handling</t>
+  </si>
+  <si>
+    <t>Truck: Initially empty.
+Packages:
+First package: {weight=10, volume=LIMIT_VOLUME}
+Second package: {weight=10, volume=1} (exceeds truck volume capacity).</t>
+  </si>
+  <si>
+    <t>After adding the first package:
+Package count = 1.
+Truck weight = 10.
+Truck volume = LIMIT_VOLUME.
+After attempting to add the second package:
+Package count remains 1 (unchanged).
+Truck weight remains 10 (unchanged).
+Truck volume remains LIMIT_VOLUME (unchanged).</t>
+  </si>
+  <si>
+    <t>After Adding the First Package:
+Package Count: 1 (correct).
+Truck Weight: 10 (correct).
+Truck Volume: LIMIT_VOLUME (correct).
+After Attempting to Add the Second Package:
+Can not add Second Package, The current volume reach to LIMIT_VOLUME
+Package Count: 1 (unchanged, correct).
+Truck Weight: 10 (unchanged, correct).
+Truck Volume: LIMIT_VOLUME (unchanged, correct).</t>
+  </si>
+  <si>
+    <t>Exact Fit Validation</t>
+  </si>
+  <si>
+    <t>1. Initialize an empty truck.
+2. Create a package with maximum allowed weight (LIMIT_WEIGHT) and maximum allowed volume (LIMIT_VOLUME).
+3. Add this exact-fit package to the truck.
+4. Verify the truck's package count, current weight, and current volume after adding the package.
+5. Create a second small package with weight 1 and volume 1.
+6. Attempt to add the second package to the truck.
+7. Verify that the second package was not added due to the truck being at full capacity.</t>
+  </si>
+  <si>
+    <t>1. Initialize an empty truck.
+2. Create the first package with maximum allowed volume (LIMIT_VOLUME) and a low weight of 10.
+3. Add the first package to the truck.
+4. Verify the truck's package count, current weight, and current volume after adding the first package.
+5. Create a second package with weight 10 and volume 1.
+6. Attempt to add the second package to the truck.
+7. Verify that the second package was not added due to exceeding the truck’s volume limit.</t>
+  </si>
+  <si>
+    <t>Truck: Initially empty.
+Packages:
+First package: {weight=LIMIT_WEIGHT, volume=LIMIT_VOLUME} (exact fit).
+Second package: {weight=1, volume=1} (exceeds capacity).</t>
+  </si>
+  <si>
+    <t>After adding the first package:
+Package count = 1.
+Truck weight = LIMIT_WEIGHT.
+Truck volume = LIMIT_VOLUME.
+After attempting to add the second package:
+Package count remains 1 (unchanged).
+Truck weight remains LIMIT_WEIGHT (unchanged).
+Truck volume remains LIMIT_VOLUME (unchanged).</t>
+  </si>
+  <si>
+    <t>After Adding the First Package:
+Package Count: 1 (correct).
+Truck Weight: LIMIT_WEIGHT (correct).
+Truck Volume: LIMIT_VOLUME (correct).
+After Attempting to Add the Second Package:
+Cannot add second package, because the package 1 is reach to the LIMIT_WEIGHT &amp;  LIMIT_VOLUME of truck.
+Package Count: 1 (unchanged, correct).
+Truck Weight: LIMIT_WEIGHT (unchanged, correct).
+Truck Volume: LIMIT_VOLUME (unchanged, correct).</t>
+  </si>
+  <si>
+    <t>Invalid Package Handling</t>
+  </si>
+  <si>
+    <t>1. Initialize an empty truck.
+2. Create a package with invalid attributes: weight=-10 and volume=-5.
+3. Validate the package before attempting to add it.
+4. If the package has negative weight or volume, display an error message.
+5. If the package is valid (which it isn’t in this case), attempt to add it to the truck.
+6. Verify that the truck's state remains unchanged (no package should be added).</t>
+  </si>
+  <si>
+    <t>Truck: Initially empty.
+Package: {weight=-10, volume=-5} (invalid attributes).</t>
+  </si>
+  <si>
+    <t>The package should be identified as invalid due to negative values for weight and volume.
+An error message "Invalid package: Cannot add package with negative weight or volume." should be displayed.
+The truck's state should remain unchanged:
+Package count = 0.
+Truck weight = 0.
+Truck volume = 0.</t>
+  </si>
+  <si>
+    <t>Package Validation:
+The system correctly identified the package as invalid due to its negative weight and volume.
+The following message was displayed:
+"Invalid package: Cannot add package with negative weight or volume."
+Truck State Verification:
+Package Count: 0 (correct, no package added).
+Truck Weight: 0 (correct, unchanged).
+Truck Volume: 0 (correct, unchanged).</t>
   </si>
 </sst>
 </file>
@@ -315,11 +563,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,17 +883,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8B8B84-7BC1-4E76-B069-ACDEFB8AB621}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="3" max="3" width="42.90625" customWidth="1"/>
     <col min="4" max="4" width="35.26953125" customWidth="1"/>
     <col min="5" max="5" width="83.54296875" customWidth="1"/>
     <col min="6" max="6" width="60.54296875" customWidth="1"/>
@@ -721,7 +969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -767,7 +1015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -837,25 +1085,163 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="232" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="319" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="348" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>7</v>
       </c>
     </row>
